--- a/Code/Results/Cases/Case_0_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04832399933771825</v>
+        <v>0.02676330784007064</v>
       </c>
       <c r="D2">
-        <v>0.07884685136932035</v>
+        <v>0.126626398853702</v>
       </c>
       <c r="E2">
-        <v>0.0612919848702056</v>
+        <v>0.1272319464966003</v>
       </c>
       <c r="F2">
-        <v>0.9599552311263864</v>
+        <v>1.76866632858848</v>
       </c>
       <c r="G2">
-        <v>0.6989372297742023</v>
+        <v>1.139794440754088</v>
       </c>
       <c r="H2">
-        <v>0.4899692161397553</v>
+        <v>1.118416158928923</v>
       </c>
       <c r="I2">
-        <v>0.5786668945220015</v>
+        <v>0.9677211564322121</v>
       </c>
       <c r="J2">
-        <v>0.06616648651407431</v>
+        <v>0.1582491484842379</v>
       </c>
       <c r="K2">
-        <v>3.657812716717785</v>
+        <v>1.444391610187438</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7859800949390134</v>
+        <v>0.4473300512769285</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0436382059732594</v>
+        <v>0.02514591287319234</v>
       </c>
       <c r="D3">
-        <v>0.07139632358565251</v>
+        <v>0.124834256285439</v>
       </c>
       <c r="E3">
-        <v>0.05828860875007713</v>
+        <v>0.1272293766838999</v>
       </c>
       <c r="F3">
-        <v>0.9205942721468361</v>
+        <v>1.777265849831636</v>
       </c>
       <c r="G3">
-        <v>0.6657238719992193</v>
+        <v>1.145804523967982</v>
       </c>
       <c r="H3">
-        <v>0.4847708881620605</v>
+        <v>1.127957161975999</v>
       </c>
       <c r="I3">
-        <v>0.5500537284898002</v>
+        <v>0.9715550296392479</v>
       </c>
       <c r="J3">
-        <v>0.06563097352528047</v>
+        <v>0.1594774004235973</v>
       </c>
       <c r="K3">
-        <v>3.174267936417664</v>
+        <v>1.300306291216657</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.684097092263606</v>
+        <v>0.4188996723942324</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04076181576546389</v>
+        <v>0.02414555528302742</v>
       </c>
       <c r="D4">
-        <v>0.06686197285532103</v>
+        <v>0.1237593896984919</v>
       </c>
       <c r="E4">
-        <v>0.05652906677237368</v>
+        <v>0.1272791742192183</v>
       </c>
       <c r="F4">
-        <v>0.8991840627666434</v>
+        <v>1.783783967672548</v>
       </c>
       <c r="G4">
-        <v>0.6478230136999912</v>
+        <v>1.150478680072538</v>
       </c>
       <c r="H4">
-        <v>0.4829824697487055</v>
+        <v>1.134503208182139</v>
       </c>
       <c r="I4">
-        <v>0.5342893577770482</v>
+        <v>0.9746639311407677</v>
       </c>
       <c r="J4">
-        <v>0.06545972165764979</v>
+        <v>0.1603161508165449</v>
       </c>
       <c r="K4">
-        <v>2.878697094363787</v>
+        <v>1.211928809736406</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6219660115067498</v>
+        <v>0.4015609944499374</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03958930858970433</v>
+        <v>0.02373609068877158</v>
       </c>
       <c r="D5">
-        <v>0.06502326835597927</v>
+        <v>0.1233278363438401</v>
       </c>
       <c r="E5">
-        <v>0.05583215093088256</v>
+        <v>0.1273123997652021</v>
       </c>
       <c r="F5">
-        <v>0.8911094257374401</v>
+        <v>1.786750863919217</v>
       </c>
       <c r="G5">
-        <v>0.6411126661366211</v>
+        <v>1.152630066833567</v>
       </c>
       <c r="H5">
-        <v>0.4825872654715653</v>
+        <v>1.137343506281937</v>
       </c>
       <c r="I5">
-        <v>0.528289021216267</v>
+        <v>0.9761201776870081</v>
       </c>
       <c r="J5">
-        <v>0.06542759894686156</v>
+        <v>0.1606792063535636</v>
       </c>
       <c r="K5">
-        <v>2.758511015733859</v>
+        <v>1.175938654400113</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5967372981781267</v>
+        <v>0.3945252112629163</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03939457848969852</v>
+        <v>0.02366799056277102</v>
       </c>
       <c r="D6">
-        <v>0.06471847200356251</v>
+        <v>0.1232565690214074</v>
       </c>
       <c r="E6">
-        <v>0.05571761111408335</v>
+        <v>0.127318698354685</v>
       </c>
       <c r="F6">
-        <v>0.8898066967317533</v>
+        <v>1.787262263694181</v>
       </c>
       <c r="G6">
-        <v>0.6400325281013721</v>
+        <v>1.153002175699982</v>
       </c>
       <c r="H6">
-        <v>0.4825412491682073</v>
+        <v>1.137825561438916</v>
       </c>
       <c r="I6">
-        <v>0.5273174258404012</v>
+        <v>0.976373408214819</v>
       </c>
       <c r="J6">
-        <v>0.06542448494242592</v>
+        <v>0.1607407749369827</v>
       </c>
       <c r="K6">
-        <v>2.738567983636443</v>
+        <v>1.169964030734917</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.592553069758857</v>
+        <v>0.3933587370636431</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04074600503295756</v>
+        <v>0.02414004040819862</v>
       </c>
       <c r="D7">
-        <v>0.06683714001289331</v>
+        <v>0.1237535433850212</v>
       </c>
       <c r="E7">
-        <v>0.0565195879532876</v>
+        <v>0.1272795699281346</v>
       </c>
       <c r="F7">
-        <v>0.899072587892654</v>
+        <v>1.783822723007837</v>
       </c>
       <c r="G7">
-        <v>0.6477302033569146</v>
+        <v>1.150506696883667</v>
       </c>
       <c r="H7">
-        <v>0.4829758137963438</v>
+        <v>1.134540814365266</v>
       </c>
       <c r="I7">
-        <v>0.5342067574593514</v>
+        <v>0.9746828045842051</v>
       </c>
       <c r="J7">
-        <v>0.06545913843480378</v>
+        <v>0.1603209610583072</v>
       </c>
       <c r="K7">
-        <v>2.877075256164972</v>
+        <v>1.211443333321569</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6216254243341979</v>
+        <v>0.4014659861101464</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04670785609565087</v>
+        <v>0.02620714895996912</v>
       </c>
       <c r="D8">
-        <v>0.07626888215575889</v>
+        <v>0.1260031996545905</v>
       </c>
       <c r="E8">
-        <v>0.06023815947749434</v>
+        <v>0.127220405455752</v>
       </c>
       <c r="F8">
-        <v>0.9457843417483645</v>
+        <v>1.771374143830116</v>
       </c>
       <c r="G8">
-        <v>0.6869416613755277</v>
+        <v>1.141662023431266</v>
       </c>
       <c r="H8">
-        <v>0.4878735500872864</v>
+        <v>1.121562998471134</v>
       </c>
       <c r="I8">
-        <v>0.5684079895462943</v>
+        <v>0.9688861088638063</v>
       </c>
       <c r="J8">
-        <v>0.06594792543102912</v>
+        <v>0.1586550821181412</v>
       </c>
       <c r="K8">
-        <v>3.490765538376479</v>
+        <v>1.394692778114461</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7507520120245346</v>
+        <v>0.4375029838088764</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05843147001997551</v>
+        <v>0.03020248734353714</v>
       </c>
       <c r="D9">
-        <v>0.09513709136295034</v>
+        <v>0.1306154622780014</v>
       </c>
       <c r="E9">
-        <v>0.06825712586520538</v>
+        <v>0.1275115484714142</v>
       </c>
       <c r="F9">
-        <v>1.061369668128904</v>
+        <v>1.756813449219536</v>
       </c>
       <c r="G9">
-        <v>0.7856694632790209</v>
+        <v>1.132161452857318</v>
       </c>
       <c r="H9">
-        <v>0.5095523006584841</v>
+        <v>1.101581915422784</v>
       </c>
       <c r="I9">
-        <v>0.6512484456085232</v>
+        <v>0.9635311178379311</v>
       </c>
       <c r="J9">
-        <v>0.06825150889257969</v>
+        <v>0.1560602832327547</v>
       </c>
       <c r="K9">
-        <v>4.708351988777736</v>
+        <v>1.754729185052156</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.00817854252243</v>
+        <v>0.5090972688332656</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0671064267265038</v>
+        <v>0.0331018837429724</v>
       </c>
       <c r="D10">
-        <v>0.1093085513946477</v>
+        <v>0.1341245227246333</v>
       </c>
       <c r="E10">
-        <v>0.07467678047817827</v>
+        <v>0.1279732271162324</v>
       </c>
       <c r="F10">
-        <v>1.16409616811319</v>
+        <v>1.752162328161887</v>
       </c>
       <c r="G10">
-        <v>0.8746338517241981</v>
+        <v>1.130015487548363</v>
       </c>
       <c r="H10">
-        <v>0.5342626417298817</v>
+        <v>1.090250896577786</v>
       </c>
       <c r="I10">
-        <v>0.7239313308403226</v>
+        <v>0.9632948581471936</v>
       </c>
       <c r="J10">
-        <v>0.07090737196120855</v>
+        <v>0.1545646317565357</v>
       </c>
       <c r="K10">
-        <v>5.617104530576967</v>
+        <v>2.019639047456849</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.201159214323539</v>
+        <v>0.5622573552422523</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07107674366722705</v>
+        <v>0.03441300797710056</v>
       </c>
       <c r="D11">
-        <v>0.1158430305838181</v>
+        <v>0.1357466688723292</v>
       </c>
       <c r="E11">
-        <v>0.07773282424435379</v>
+        <v>0.1282369823307157</v>
       </c>
       <c r="F11">
-        <v>1.21548212960883</v>
+        <v>1.751368436910013</v>
       </c>
       <c r="G11">
-        <v>0.9194444973525293</v>
+        <v>1.130100281091643</v>
       </c>
       <c r="H11">
-        <v>0.5477630353617542</v>
+        <v>1.085826732779012</v>
       </c>
       <c r="I11">
-        <v>0.7601080192045302</v>
+        <v>0.9639975397990952</v>
       </c>
       <c r="J11">
-        <v>0.07236014169060212</v>
+        <v>0.1539736548532176</v>
       </c>
       <c r="K11">
-        <v>6.034988625752533</v>
+        <v>2.140235050164563</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.290105780144202</v>
+        <v>0.5865622976395315</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07258461563413476</v>
+        <v>0.03490835934017156</v>
       </c>
       <c r="D12">
-        <v>0.118331968417408</v>
+        <v>0.136364613000481</v>
       </c>
       <c r="E12">
-        <v>0.07891150293085758</v>
+        <v>0.1283445771743104</v>
       </c>
       <c r="F12">
-        <v>1.235683076608595</v>
+        <v>1.751258605394597</v>
       </c>
       <c r="G12">
-        <v>0.9371089356158251</v>
+        <v>1.130285859568531</v>
       </c>
       <c r="H12">
-        <v>0.5532329642323361</v>
+        <v>1.084256719874915</v>
       </c>
       <c r="I12">
-        <v>0.7743053977983649</v>
+        <v>0.9643806843307772</v>
       </c>
       <c r="J12">
-        <v>0.07294872032509403</v>
+        <v>0.1537627431769018</v>
       </c>
       <c r="K12">
-        <v>6.194003282651977</v>
+        <v>2.185913306537714</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.323983425019563</v>
+        <v>0.5957833499657852</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0722596567110827</v>
+        <v>0.03480172766905554</v>
       </c>
       <c r="D13">
-        <v>0.1177952560419726</v>
+        <v>0.1362313650546128</v>
       </c>
       <c r="E13">
-        <v>0.07865666835539997</v>
+        <v>0.1283210616740966</v>
       </c>
       <c r="F13">
-        <v>1.231298194120214</v>
+        <v>1.751273762520114</v>
       </c>
       <c r="G13">
-        <v>0.9332724287695982</v>
+        <v>1.13023905203697</v>
       </c>
       <c r="H13">
-        <v>0.5520384553191491</v>
+        <v>1.084590161308881</v>
       </c>
       <c r="I13">
-        <v>0.7712247298548576</v>
+        <v>0.9642929524397772</v>
       </c>
       <c r="J13">
-        <v>0.07282019389747063</v>
+        <v>0.1538075936474534</v>
       </c>
       <c r="K13">
-        <v>6.159720200426591</v>
+        <v>2.176075201499657</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.316678081070592</v>
+        <v>0.5937966662077798</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07120070328703321</v>
+        <v>0.03445378383776898</v>
       </c>
       <c r="D14">
-        <v>0.1160474957043647</v>
+        <v>0.1357974341617592</v>
       </c>
       <c r="E14">
-        <v>0.07782935396570778</v>
+        <v>0.1282456796336824</v>
       </c>
       <c r="F14">
-        <v>1.217128755900774</v>
+        <v>1.751355573079422</v>
       </c>
       <c r="G14">
-        <v>0.9208833847687856</v>
+        <v>1.130112467850722</v>
       </c>
       <c r="H14">
-        <v>0.5482056832235429</v>
+        <v>1.085695454369628</v>
       </c>
       <c r="I14">
-        <v>0.7612657574643364</v>
+        <v>0.964026712209396</v>
       </c>
       <c r="J14">
-        <v>0.07240777399209719</v>
+        <v>0.153956044789787</v>
       </c>
       <c r="K14">
-        <v>6.048054639161421</v>
+        <v>2.143992811715805</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.292888820094504</v>
+        <v>0.5873205739911498</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07055266627838108</v>
+        <v>0.03424050883599961</v>
       </c>
       <c r="D15">
-        <v>0.1149788847470035</v>
+        <v>0.135532115898414</v>
       </c>
       <c r="E15">
-        <v>0.07732544937060837</v>
+        <v>0.1282005105585107</v>
       </c>
       <c r="F15">
-        <v>1.208548506661458</v>
+        <v>1.751430552918819</v>
       </c>
       <c r="G15">
-        <v>0.9133875725564451</v>
+        <v>1.130054944242303</v>
       </c>
       <c r="H15">
-        <v>0.5459055998541231</v>
+        <v>1.086386203086505</v>
       </c>
       <c r="I15">
-        <v>0.7552320431614632</v>
+        <v>0.9638788927723354</v>
       </c>
       <c r="J15">
-        <v>0.07216026434572598</v>
+        <v>0.1540486532256082</v>
       </c>
       <c r="K15">
-        <v>5.979760616625015</v>
+        <v>2.124342835895334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.278343579481856</v>
+        <v>0.5833560254229724</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06684751924289856</v>
+        <v>0.03301603970192701</v>
       </c>
       <c r="D16">
-        <v>0.1088834283042956</v>
+        <v>0.134019028051128</v>
       </c>
       <c r="E16">
-        <v>0.07447995055143508</v>
+        <v>0.1279570704728421</v>
       </c>
       <c r="F16">
-        <v>1.160837708208305</v>
+        <v>1.752240871715301</v>
       </c>
       <c r="G16">
-        <v>0.8717986585576227</v>
+        <v>1.130031372937168</v>
       </c>
       <c r="H16">
-        <v>0.533428548551214</v>
+        <v>1.09055474826188</v>
       </c>
       <c r="I16">
-        <v>0.7216339356474322</v>
+        <v>0.9632652860747939</v>
       </c>
       <c r="J16">
-        <v>0.07081762465269748</v>
+        <v>0.154605054411558</v>
       </c>
       <c r="K16">
-        <v>5.589895585278043</v>
+        <v>2.011759451542957</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.195372067261275</v>
+        <v>0.5606714051207717</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06458132854865539</v>
+        <v>0.03226285053285949</v>
       </c>
       <c r="D17">
-        <v>0.105167808814322</v>
+        <v>0.1330973875627919</v>
       </c>
       <c r="E17">
-        <v>0.07277038858083529</v>
+        <v>0.1278214831477875</v>
       </c>
       <c r="F17">
-        <v>1.132810548731371</v>
+        <v>1.753077055330948</v>
       </c>
       <c r="G17">
-        <v>0.8474455279074817</v>
+        <v>1.13028929986082</v>
       </c>
       <c r="H17">
-        <v>0.5263752625333638</v>
+        <v>1.093299291422156</v>
       </c>
       <c r="I17">
-        <v>0.7018542028965484</v>
+        <v>0.9630967533290544</v>
       </c>
       <c r="J17">
-        <v>0.070058837894166</v>
+        <v>0.1549693025736438</v>
       </c>
       <c r="K17">
-        <v>5.351960967594266</v>
+        <v>1.942714535664209</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.144788163438676</v>
+        <v>0.5467862192500945</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0632800760027763</v>
+        <v>0.03182890047458642</v>
       </c>
       <c r="D18">
-        <v>0.1030388268638802</v>
+        <v>0.1325697207895402</v>
       </c>
       <c r="E18">
-        <v>0.07179974320819937</v>
+        <v>0.1277485553443753</v>
       </c>
       <c r="F18">
-        <v>1.117123472256253</v>
+        <v>1.753682389699208</v>
       </c>
       <c r="G18">
-        <v>0.8338421013719852</v>
+        <v>1.130537465562753</v>
       </c>
       <c r="H18">
-        <v>0.5225289357973537</v>
+        <v>1.094946608520843</v>
       </c>
       <c r="I18">
-        <v>0.6907671237844326</v>
+        <v>0.9630760403779277</v>
       </c>
       <c r="J18">
-        <v>0.06964521335819285</v>
+        <v>0.1551872221087542</v>
       </c>
       <c r="K18">
-        <v>5.215521458508817</v>
+        <v>1.903010011489982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.115800808005176</v>
+        <v>0.538811340715327</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06283984499614093</v>
+        <v>0.03168184664968976</v>
       </c>
       <c r="D19">
-        <v>0.1023193356888754</v>
+        <v>0.1323914817526699</v>
       </c>
       <c r="E19">
-        <v>0.07147321672636409</v>
+        <v>0.1277247323615427</v>
       </c>
       <c r="F19">
-        <v>1.111884432677499</v>
+        <v>1.753908687047698</v>
       </c>
       <c r="G19">
-        <v>0.8293035124591768</v>
+        <v>1.130638605841199</v>
       </c>
       <c r="H19">
-        <v>0.5212618515069209</v>
+        <v>1.09551615700515</v>
       </c>
       <c r="I19">
-        <v>0.6870615292298936</v>
+        <v>0.9630821017602713</v>
       </c>
       <c r="J19">
-        <v>0.06950899014551482</v>
+        <v>0.1552624502857256</v>
       </c>
       <c r="K19">
-        <v>5.169392898340902</v>
+        <v>1.889568207071875</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.106003759822904</v>
+        <v>0.5361131695119212</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06482233415933081</v>
+        <v>0.03234310506370974</v>
       </c>
       <c r="D20">
-        <v>0.1055624871925005</v>
+        <v>0.1331952459348784</v>
       </c>
       <c r="E20">
-        <v>0.07295105196221385</v>
+        <v>0.127835393198179</v>
       </c>
       <c r="F20">
-        <v>1.135748727478287</v>
+        <v>1.752975163795014</v>
       </c>
       <c r="G20">
-        <v>0.8499956679849703</v>
+        <v>1.130251506325436</v>
       </c>
       <c r="H20">
-        <v>0.5271040805626512</v>
+        <v>1.093000014839163</v>
       </c>
       <c r="I20">
-        <v>0.7039294569169172</v>
+        <v>0.9631068011519659</v>
       </c>
       <c r="J20">
-        <v>0.07013722864124006</v>
+        <v>0.1549296567934633</v>
       </c>
       <c r="K20">
-        <v>5.377245776847076</v>
+        <v>1.950063637360472</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.150161614717859</v>
+        <v>0.5482631313824129</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07151161618565993</v>
+        <v>0.03455601453175916</v>
       </c>
       <c r="D21">
-        <v>0.1165604468579033</v>
+        <v>0.1359247908709875</v>
       </c>
       <c r="E21">
-        <v>0.07807175878997796</v>
+        <v>0.1282676118269492</v>
       </c>
       <c r="F21">
-        <v>1.221269903856609</v>
+        <v>1.751326359496503</v>
       </c>
       <c r="G21">
-        <v>0.9245028626565244</v>
+        <v>1.130145476428154</v>
       </c>
       <c r="H21">
-        <v>0.5493214783426055</v>
+        <v>1.085367942239401</v>
       </c>
       <c r="I21">
-        <v>0.7641770049886674</v>
+        <v>0.9641017321757275</v>
       </c>
       <c r="J21">
-        <v>0.07252784060839446</v>
+        <v>0.1539120913931242</v>
       </c>
       <c r="K21">
-        <v>6.080831530511659</v>
+        <v>2.15341589494443</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.299870751747434</v>
+        <v>0.5892222918890013</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07590960001580527</v>
+        <v>0.03599560905813348</v>
       </c>
       <c r="D22">
-        <v>0.123833601954189</v>
+        <v>0.137730092284329</v>
       </c>
       <c r="E22">
-        <v>0.0815443162508096</v>
+        <v>0.1285950644073637</v>
       </c>
       <c r="F22">
-        <v>1.281528256097928</v>
+        <v>1.751361215770402</v>
       </c>
       <c r="G22">
-        <v>0.9772907874693288</v>
+        <v>1.13097113206581</v>
       </c>
       <c r="H22">
-        <v>0.5659439833775792</v>
+        <v>1.080993976261652</v>
       </c>
       <c r="I22">
-        <v>0.8064824642262138</v>
+        <v>0.9654345168558223</v>
       </c>
       <c r="J22">
-        <v>0.07431609684507379</v>
+        <v>0.1533221296203422</v>
       </c>
       <c r="K22">
-        <v>6.545227465100538</v>
+        <v>2.286382831548849</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.398869497353019</v>
+        <v>0.6160921784209563</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07355958283341124</v>
+        <v>0.03522788635160623</v>
       </c>
       <c r="D23">
-        <v>0.1199433122508395</v>
+        <v>0.1367646269994793</v>
       </c>
       <c r="E23">
-        <v>0.07967875041207506</v>
+        <v>0.128416185239562</v>
       </c>
       <c r="F23">
-        <v>1.248941807444297</v>
+        <v>1.751240589637561</v>
       </c>
       <c r="G23">
-        <v>0.9487167969176227</v>
+        <v>1.130448278954759</v>
       </c>
       <c r="H23">
-        <v>0.5568681977278658</v>
+        <v>1.083272162149328</v>
       </c>
       <c r="I23">
-        <v>0.7836171133377832</v>
+        <v>0.96466054867944</v>
       </c>
       <c r="J23">
-        <v>0.07333983768243968</v>
+        <v>0.1536301263806692</v>
       </c>
       <c r="K23">
-        <v>6.296908235181036</v>
+        <v>2.215410418557553</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.345915976551495</v>
+        <v>0.6017420861463307</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06471337057603677</v>
+        <v>0.03230682489138559</v>
       </c>
       <c r="D24">
-        <v>0.1053840308795984</v>
+        <v>0.1331509973194116</v>
       </c>
       <c r="E24">
-        <v>0.07286933617479718</v>
+        <v>0.1278290888172648</v>
       </c>
       <c r="F24">
-        <v>1.134419055039558</v>
+        <v>1.753020840873106</v>
       </c>
       <c r="G24">
-        <v>0.8488415168077665</v>
+        <v>1.130268281721328</v>
       </c>
       <c r="H24">
-        <v>0.5267739343050692</v>
+        <v>1.093135101482943</v>
       </c>
       <c r="I24">
-        <v>0.7029903520054432</v>
+        <v>0.96310202127313</v>
       </c>
       <c r="J24">
-        <v>0.07010171799637632</v>
+        <v>0.1549475541489045</v>
       </c>
       <c r="K24">
-        <v>5.365813426672389</v>
+        <v>1.946741138551204</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.147731986738506</v>
+        <v>0.5475953947826326</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05525237005219452</v>
+        <v>0.02912792877669546</v>
       </c>
       <c r="D25">
-        <v>0.08998486274184359</v>
+        <v>0.129346438421031</v>
       </c>
       <c r="E25">
-        <v>0.06600162209512561</v>
+        <v>0.1273892433794046</v>
       </c>
       <c r="F25">
-        <v>1.027221101217435</v>
+        <v>1.759693636847956</v>
       </c>
       <c r="G25">
-        <v>0.7563180765745017</v>
+        <v>1.133886471045656</v>
       </c>
       <c r="H25">
-        <v>0.5022557542239383</v>
+        <v>1.106400311938273</v>
       </c>
       <c r="I25">
-        <v>0.6269333891709294</v>
+        <v>0.9643327389613816</v>
       </c>
       <c r="J25">
-        <v>0.06747026578787541</v>
+        <v>0.1566901927202977</v>
       </c>
       <c r="K25">
-        <v>4.376904408350583</v>
+        <v>1.657259338187089</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9379617033080336</v>
+        <v>0.4896305062402533</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02676330784007064</v>
+        <v>0.04832399933759746</v>
       </c>
       <c r="D2">
-        <v>0.126626398853702</v>
+        <v>0.07884685136932035</v>
       </c>
       <c r="E2">
-        <v>0.1272319464966003</v>
+        <v>0.06129198487020204</v>
       </c>
       <c r="F2">
-        <v>1.76866632858848</v>
+        <v>0.9599552311263864</v>
       </c>
       <c r="G2">
-        <v>1.139794440754088</v>
+        <v>0.698937229774188</v>
       </c>
       <c r="H2">
-        <v>1.118416158928923</v>
+        <v>0.4899692161396416</v>
       </c>
       <c r="I2">
-        <v>0.9677211564322121</v>
+        <v>0.5786668945220157</v>
       </c>
       <c r="J2">
-        <v>0.1582491484842379</v>
+        <v>0.06616648651395707</v>
       </c>
       <c r="K2">
-        <v>1.444391610187438</v>
+        <v>3.657812716717785</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4473300512769285</v>
+        <v>0.7859800949390277</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02514591287319234</v>
+        <v>0.04363820597302492</v>
       </c>
       <c r="D3">
-        <v>0.124834256285439</v>
+        <v>0.07139632358548198</v>
       </c>
       <c r="E3">
-        <v>0.1272293766838999</v>
+        <v>0.05828860875008246</v>
       </c>
       <c r="F3">
-        <v>1.777265849831636</v>
+        <v>0.9205942721468574</v>
       </c>
       <c r="G3">
-        <v>1.145804523967982</v>
+        <v>0.6657238719992478</v>
       </c>
       <c r="H3">
-        <v>1.127957161975999</v>
+        <v>0.4847708881619468</v>
       </c>
       <c r="I3">
-        <v>0.9715550296392479</v>
+        <v>0.5500537284897931</v>
       </c>
       <c r="J3">
-        <v>0.1594774004235973</v>
+        <v>0.06563097352530889</v>
       </c>
       <c r="K3">
-        <v>1.300306291216657</v>
+        <v>3.174267936417777</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4188996723942324</v>
+        <v>0.6840970922636203</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02414555528302742</v>
+        <v>0.04076181576571258</v>
       </c>
       <c r="D4">
-        <v>0.1237593896984919</v>
+        <v>0.06686197285520734</v>
       </c>
       <c r="E4">
-        <v>0.1272791742192183</v>
+        <v>0.05652906677234704</v>
       </c>
       <c r="F4">
-        <v>1.783783967672548</v>
+        <v>0.8991840627666434</v>
       </c>
       <c r="G4">
-        <v>1.150478680072538</v>
+        <v>0.6478230136999343</v>
       </c>
       <c r="H4">
-        <v>1.134503208182139</v>
+        <v>0.4829824697487055</v>
       </c>
       <c r="I4">
-        <v>0.9746639311407677</v>
+        <v>0.5342893577770482</v>
       </c>
       <c r="J4">
-        <v>0.1603161508165449</v>
+        <v>0.06545972165762137</v>
       </c>
       <c r="K4">
-        <v>1.211928809736406</v>
+        <v>2.878697094363815</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4015609944499374</v>
+        <v>0.6219660115067356</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02373609068877158</v>
+        <v>0.03958930859027276</v>
       </c>
       <c r="D5">
-        <v>0.1233278363438401</v>
+        <v>0.06502326835590821</v>
       </c>
       <c r="E5">
-        <v>0.1273123997652021</v>
+        <v>0.055832150930895</v>
       </c>
       <c r="F5">
-        <v>1.786750863919217</v>
+        <v>0.8911094257374401</v>
       </c>
       <c r="G5">
-        <v>1.152630066833567</v>
+        <v>0.6411126661366069</v>
       </c>
       <c r="H5">
-        <v>1.137343506281937</v>
+        <v>0.4825872654714232</v>
       </c>
       <c r="I5">
-        <v>0.9761201776870081</v>
+        <v>0.5282890212162457</v>
       </c>
       <c r="J5">
-        <v>0.1606792063535636</v>
+        <v>0.06542759894684735</v>
       </c>
       <c r="K5">
-        <v>1.175938654400113</v>
+        <v>2.758511015733887</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3945252112629163</v>
+        <v>0.5967372981781409</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02366799056277102</v>
+        <v>0.0393945784899401</v>
       </c>
       <c r="D6">
-        <v>0.1232565690214074</v>
+        <v>0.06471847200374015</v>
       </c>
       <c r="E6">
-        <v>0.127318698354685</v>
+        <v>0.05571761111409046</v>
       </c>
       <c r="F6">
-        <v>1.787262263694181</v>
+        <v>0.8898066967317533</v>
       </c>
       <c r="G6">
-        <v>1.153002175699982</v>
+        <v>0.6400325281013153</v>
       </c>
       <c r="H6">
-        <v>1.137825561438916</v>
+        <v>0.4825412491681931</v>
       </c>
       <c r="I6">
-        <v>0.976373408214819</v>
+        <v>0.5273174258404083</v>
       </c>
       <c r="J6">
-        <v>0.1607407749369827</v>
+        <v>0.06542448494250408</v>
       </c>
       <c r="K6">
-        <v>1.169964030734917</v>
+        <v>2.738567983636557</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3933587370636431</v>
+        <v>0.5925530697588712</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02414004040819862</v>
+        <v>0.0407460050335402</v>
       </c>
       <c r="D7">
-        <v>0.1237535433850212</v>
+        <v>0.06683714001312779</v>
       </c>
       <c r="E7">
-        <v>0.1272795699281346</v>
+        <v>0.05651958795326983</v>
       </c>
       <c r="F7">
-        <v>1.783822723007837</v>
+        <v>0.8990725878926611</v>
       </c>
       <c r="G7">
-        <v>1.150506696883667</v>
+        <v>0.6477302033569003</v>
       </c>
       <c r="H7">
-        <v>1.134540814365266</v>
+        <v>0.4829758137963438</v>
       </c>
       <c r="I7">
-        <v>0.9746828045842051</v>
+        <v>0.5342067574593514</v>
       </c>
       <c r="J7">
-        <v>0.1603209610583072</v>
+        <v>0.06545913843472917</v>
       </c>
       <c r="K7">
-        <v>1.211443333321569</v>
+        <v>2.877075256165</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4014659861101464</v>
+        <v>0.6216254243341979</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02620714895996912</v>
+        <v>0.04670785609565797</v>
       </c>
       <c r="D8">
-        <v>0.1260031996545905</v>
+        <v>0.07626888215593652</v>
       </c>
       <c r="E8">
-        <v>0.127220405455752</v>
+        <v>0.06023815947750499</v>
       </c>
       <c r="F8">
-        <v>1.771374143830116</v>
+        <v>0.9457843417483645</v>
       </c>
       <c r="G8">
-        <v>1.141662023431266</v>
+        <v>0.6869416613755419</v>
       </c>
       <c r="H8">
-        <v>1.121562998471134</v>
+        <v>0.4878735500871727</v>
       </c>
       <c r="I8">
-        <v>0.9688861088638063</v>
+        <v>0.5684079895462943</v>
       </c>
       <c r="J8">
-        <v>0.1586550821181412</v>
+        <v>0.06594792543113215</v>
       </c>
       <c r="K8">
-        <v>1.394692778114461</v>
+        <v>3.490765538376365</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4375029838088764</v>
+        <v>0.7507520120245132</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03020248734353714</v>
+        <v>0.05843147002011051</v>
       </c>
       <c r="D9">
-        <v>0.1306154622780014</v>
+        <v>0.09513709136314219</v>
       </c>
       <c r="E9">
-        <v>0.1275115484714142</v>
+        <v>0.06825712586520893</v>
       </c>
       <c r="F9">
-        <v>1.756813449219536</v>
+        <v>1.061369668128947</v>
       </c>
       <c r="G9">
-        <v>1.132161452857318</v>
+        <v>0.7856694632789356</v>
       </c>
       <c r="H9">
-        <v>1.101581915422784</v>
+        <v>0.5095523006585125</v>
       </c>
       <c r="I9">
-        <v>0.9635311178379311</v>
+        <v>0.6512484456085232</v>
       </c>
       <c r="J9">
-        <v>0.1560602832327547</v>
+        <v>0.06825150889254061</v>
       </c>
       <c r="K9">
-        <v>1.754729185052156</v>
+        <v>4.708351988777622</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5090972688332656</v>
+        <v>1.008178542522437</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0331018837429724</v>
+        <v>0.0671064267265038</v>
       </c>
       <c r="D10">
-        <v>0.1341245227246333</v>
+        <v>0.1093085513946477</v>
       </c>
       <c r="E10">
-        <v>0.1279732271162324</v>
+        <v>0.07467678047819604</v>
       </c>
       <c r="F10">
-        <v>1.752162328161887</v>
+        <v>1.16409616811319</v>
       </c>
       <c r="G10">
-        <v>1.130015487548363</v>
+        <v>0.8746338517242123</v>
       </c>
       <c r="H10">
-        <v>1.090250896577786</v>
+        <v>0.5342626417298817</v>
       </c>
       <c r="I10">
-        <v>0.9632948581471936</v>
+        <v>0.7239313308403297</v>
       </c>
       <c r="J10">
-        <v>0.1545646317565357</v>
+        <v>0.07090737196115882</v>
       </c>
       <c r="K10">
-        <v>2.019639047456849</v>
+        <v>5.617104530576853</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5622573552422523</v>
+        <v>1.201159214323525</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03441300797710056</v>
+        <v>0.07107674366722705</v>
       </c>
       <c r="D11">
-        <v>0.1357466688723292</v>
+        <v>0.1158430305838181</v>
       </c>
       <c r="E11">
-        <v>0.1282369823307157</v>
+        <v>0.07773282424435379</v>
       </c>
       <c r="F11">
-        <v>1.751368436910013</v>
+        <v>1.21548212960883</v>
       </c>
       <c r="G11">
-        <v>1.130100281091643</v>
+        <v>0.9194444973525009</v>
       </c>
       <c r="H11">
-        <v>1.085826732779012</v>
+        <v>0.5477630353617542</v>
       </c>
       <c r="I11">
-        <v>0.9639975397990952</v>
+        <v>0.7601080192045302</v>
       </c>
       <c r="J11">
-        <v>0.1539736548532176</v>
+        <v>0.07236014169060212</v>
       </c>
       <c r="K11">
-        <v>2.140235050164563</v>
+        <v>6.034988625752646</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5865622976395315</v>
+        <v>1.290105780144216</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03490835934017156</v>
+        <v>0.07258461563429108</v>
       </c>
       <c r="D12">
-        <v>0.136364613000481</v>
+        <v>0.1183319684175927</v>
       </c>
       <c r="E12">
-        <v>0.1283445771743104</v>
+        <v>0.07891150293086113</v>
       </c>
       <c r="F12">
-        <v>1.751258605394597</v>
+        <v>1.235683076608566</v>
       </c>
       <c r="G12">
-        <v>1.130285859568531</v>
+        <v>0.9371089356157967</v>
       </c>
       <c r="H12">
-        <v>1.084256719874915</v>
+        <v>0.5532329642323361</v>
       </c>
       <c r="I12">
-        <v>0.9643806843307772</v>
+        <v>0.7743053977983649</v>
       </c>
       <c r="J12">
-        <v>0.1537627431769018</v>
+        <v>0.07294872032510824</v>
       </c>
       <c r="K12">
-        <v>2.185913306537714</v>
+        <v>6.19400328265192</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5957833499657852</v>
+        <v>1.323983425019549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03480172766905554</v>
+        <v>0.0722596567108198</v>
       </c>
       <c r="D13">
-        <v>0.1362313650546128</v>
+        <v>0.1177952560421005</v>
       </c>
       <c r="E13">
-        <v>0.1283210616740966</v>
+        <v>0.078656668355368</v>
       </c>
       <c r="F13">
-        <v>1.751273762520114</v>
+        <v>1.231298194120214</v>
       </c>
       <c r="G13">
-        <v>1.13023905203697</v>
+        <v>0.9332724287695555</v>
       </c>
       <c r="H13">
-        <v>1.084590161308881</v>
+        <v>0.5520384553192628</v>
       </c>
       <c r="I13">
-        <v>0.9642929524397772</v>
+        <v>0.7712247298548576</v>
       </c>
       <c r="J13">
-        <v>0.1538075936474534</v>
+        <v>0.07282019389749195</v>
       </c>
       <c r="K13">
-        <v>2.176075201499657</v>
+        <v>6.159720200426477</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5937966662077798</v>
+        <v>1.316678081070563</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03445378383776898</v>
+        <v>0.07120070328699768</v>
       </c>
       <c r="D14">
-        <v>0.1357974341617592</v>
+        <v>0.1160474957044357</v>
       </c>
       <c r="E14">
-        <v>0.1282456796336824</v>
+        <v>0.07782935396572555</v>
       </c>
       <c r="F14">
-        <v>1.751355573079422</v>
+        <v>1.217128755900774</v>
       </c>
       <c r="G14">
-        <v>1.130112467850722</v>
+        <v>0.9208833847687146</v>
       </c>
       <c r="H14">
-        <v>1.085695454369628</v>
+        <v>0.5482056832236566</v>
       </c>
       <c r="I14">
-        <v>0.964026712209396</v>
+        <v>0.7612657574643364</v>
       </c>
       <c r="J14">
-        <v>0.153956044789787</v>
+        <v>0.07240777399214693</v>
       </c>
       <c r="K14">
-        <v>2.143992811715805</v>
+        <v>6.048054639161421</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5873205739911498</v>
+        <v>1.292888820094504</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03424050883599961</v>
+        <v>0.07055266627861556</v>
       </c>
       <c r="D15">
-        <v>0.135532115898414</v>
+        <v>0.1149788847471882</v>
       </c>
       <c r="E15">
-        <v>0.1282005105585107</v>
+        <v>0.07732544937062613</v>
       </c>
       <c r="F15">
-        <v>1.751430552918819</v>
+        <v>1.208548506661444</v>
       </c>
       <c r="G15">
-        <v>1.130054944242303</v>
+        <v>0.9133875725564167</v>
       </c>
       <c r="H15">
-        <v>1.086386203086505</v>
+        <v>0.5459055998540094</v>
       </c>
       <c r="I15">
-        <v>0.9638788927723354</v>
+        <v>0.7552320431614632</v>
       </c>
       <c r="J15">
-        <v>0.1540486532256082</v>
+        <v>0.0721602643456265</v>
       </c>
       <c r="K15">
-        <v>2.124342835895334</v>
+        <v>5.979760616625072</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5833560254229724</v>
+        <v>1.278343579481884</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03301603970192701</v>
+        <v>0.06684751924278487</v>
       </c>
       <c r="D16">
-        <v>0.134019028051128</v>
+        <v>0.1088834283043667</v>
       </c>
       <c r="E16">
-        <v>0.1279570704728421</v>
+        <v>0.07447995055143508</v>
       </c>
       <c r="F16">
-        <v>1.752240871715301</v>
+        <v>1.160837708208305</v>
       </c>
       <c r="G16">
-        <v>1.130031372937168</v>
+        <v>0.8717986585576227</v>
       </c>
       <c r="H16">
-        <v>1.09055474826188</v>
+        <v>0.5334285485511003</v>
       </c>
       <c r="I16">
-        <v>0.9632652860747939</v>
+        <v>0.7216339356474322</v>
       </c>
       <c r="J16">
-        <v>0.154605054411558</v>
+        <v>0.07081762465269748</v>
       </c>
       <c r="K16">
-        <v>2.011759451542957</v>
+        <v>5.589895585278043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5606714051207717</v>
+        <v>1.195372067261275</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03226285053285949</v>
+        <v>0.06458132854854881</v>
       </c>
       <c r="D17">
-        <v>0.1330973875627919</v>
+        <v>0.1051678088141514</v>
       </c>
       <c r="E17">
-        <v>0.1278214831477875</v>
+        <v>0.07277038858082108</v>
       </c>
       <c r="F17">
-        <v>1.753077055330948</v>
+        <v>1.132810548731356</v>
       </c>
       <c r="G17">
-        <v>1.13028929986082</v>
+        <v>0.8474455279074249</v>
       </c>
       <c r="H17">
-        <v>1.093299291422156</v>
+        <v>0.5263752625333495</v>
       </c>
       <c r="I17">
-        <v>0.9630967533290544</v>
+        <v>0.7018542028965555</v>
       </c>
       <c r="J17">
-        <v>0.1549693025736438</v>
+        <v>0.07005883789415179</v>
       </c>
       <c r="K17">
-        <v>1.942714535664209</v>
+        <v>5.351960967594209</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5467862192500945</v>
+        <v>1.144788163438676</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03182890047458642</v>
+        <v>0.06328007600288288</v>
       </c>
       <c r="D18">
-        <v>0.1325697207895402</v>
+        <v>0.1030388268637665</v>
       </c>
       <c r="E18">
-        <v>0.1277485553443753</v>
+        <v>0.07179974320820648</v>
       </c>
       <c r="F18">
-        <v>1.753682389699208</v>
+        <v>1.117123472256239</v>
       </c>
       <c r="G18">
-        <v>1.130537465562753</v>
+        <v>0.8338421013719284</v>
       </c>
       <c r="H18">
-        <v>1.094946608520843</v>
+        <v>0.5225289357973537</v>
       </c>
       <c r="I18">
-        <v>0.9630760403779277</v>
+        <v>0.6907671237844255</v>
       </c>
       <c r="J18">
-        <v>0.1551872221087542</v>
+        <v>0.06964521335824259</v>
       </c>
       <c r="K18">
-        <v>1.903010011489982</v>
+        <v>5.215521458508761</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.538811340715327</v>
+        <v>1.11580080800519</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03168184664968976</v>
+        <v>0.06283984499589934</v>
       </c>
       <c r="D19">
-        <v>0.1323914817526699</v>
+        <v>0.1023193356888825</v>
       </c>
       <c r="E19">
-        <v>0.1277247323615427</v>
+        <v>0.07147321672638185</v>
       </c>
       <c r="F19">
-        <v>1.753908687047698</v>
+        <v>1.111884432677513</v>
       </c>
       <c r="G19">
-        <v>1.130638605841199</v>
+        <v>0.829303512459191</v>
       </c>
       <c r="H19">
-        <v>1.09551615700515</v>
+        <v>0.5212618515067931</v>
       </c>
       <c r="I19">
-        <v>0.9630821017602713</v>
+        <v>0.6870615292299007</v>
       </c>
       <c r="J19">
-        <v>0.1552624502857256</v>
+        <v>0.06950899014547218</v>
       </c>
       <c r="K19">
-        <v>1.889568207071875</v>
+        <v>5.169392898340902</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5361131695119212</v>
+        <v>1.10600375982289</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03234310506370974</v>
+        <v>0.0648223341593237</v>
       </c>
       <c r="D20">
-        <v>0.1331952459348784</v>
+        <v>0.1055624871924934</v>
       </c>
       <c r="E20">
-        <v>0.127835393198179</v>
+        <v>0.07295105196222451</v>
       </c>
       <c r="F20">
-        <v>1.752975163795014</v>
+        <v>1.135748727478287</v>
       </c>
       <c r="G20">
-        <v>1.130251506325436</v>
+        <v>0.8499956679849276</v>
       </c>
       <c r="H20">
-        <v>1.093000014839163</v>
+        <v>0.527104080562637</v>
       </c>
       <c r="I20">
-        <v>0.9631068011519659</v>
+        <v>0.7039294569169101</v>
       </c>
       <c r="J20">
-        <v>0.1549296567934633</v>
+        <v>0.07013722864132177</v>
       </c>
       <c r="K20">
-        <v>1.950063637360472</v>
+        <v>5.377245776847076</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5482631313824129</v>
+        <v>1.150161614717845</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03455601453175916</v>
+        <v>0.07151161618553914</v>
       </c>
       <c r="D21">
-        <v>0.1359247908709875</v>
+        <v>0.1165604468577754</v>
       </c>
       <c r="E21">
-        <v>0.1282676118269492</v>
+        <v>0.07807175878998862</v>
       </c>
       <c r="F21">
-        <v>1.751326359496503</v>
+        <v>1.221269903856594</v>
       </c>
       <c r="G21">
-        <v>1.130145476428154</v>
+        <v>0.9245028626565528</v>
       </c>
       <c r="H21">
-        <v>1.085367942239401</v>
+        <v>0.5493214783425913</v>
       </c>
       <c r="I21">
-        <v>0.9641017321757275</v>
+        <v>0.7641770049886674</v>
       </c>
       <c r="J21">
-        <v>0.1539120913931242</v>
+        <v>0.07252784060833051</v>
       </c>
       <c r="K21">
-        <v>2.15341589494443</v>
+        <v>6.080831530511603</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5892222918890013</v>
+        <v>1.299870751747449</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03599560905813348</v>
+        <v>0.07590960001590474</v>
       </c>
       <c r="D22">
-        <v>0.137730092284329</v>
+        <v>0.1238336019543027</v>
       </c>
       <c r="E22">
-        <v>0.1285950644073637</v>
+        <v>0.0815443162508096</v>
       </c>
       <c r="F22">
-        <v>1.751361215770402</v>
+        <v>1.281528256097914</v>
       </c>
       <c r="G22">
-        <v>1.13097113206581</v>
+        <v>0.9772907874693146</v>
       </c>
       <c r="H22">
-        <v>1.080993976261652</v>
+        <v>0.5659439833774655</v>
       </c>
       <c r="I22">
-        <v>0.9654345168558223</v>
+        <v>0.8064824642262209</v>
       </c>
       <c r="J22">
-        <v>0.1533221296203422</v>
+        <v>0.07431609684507379</v>
       </c>
       <c r="K22">
-        <v>2.286382831548849</v>
+        <v>6.545227465100481</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6160921784209563</v>
+        <v>1.39886949735299</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03522788635160623</v>
+        <v>0.07355958283340414</v>
       </c>
       <c r="D23">
-        <v>0.1367646269994793</v>
+        <v>0.1199433122508395</v>
       </c>
       <c r="E23">
-        <v>0.128416185239562</v>
+        <v>0.07967875041209638</v>
       </c>
       <c r="F23">
-        <v>1.751240589637561</v>
+        <v>1.248941807444297</v>
       </c>
       <c r="G23">
-        <v>1.130448278954759</v>
+        <v>0.9487167969176085</v>
       </c>
       <c r="H23">
-        <v>1.083272162149328</v>
+        <v>0.5568681977278658</v>
       </c>
       <c r="I23">
-        <v>0.96466054867944</v>
+        <v>0.7836171133377761</v>
       </c>
       <c r="J23">
-        <v>0.1536301263806692</v>
+        <v>0.07333983768252494</v>
       </c>
       <c r="K23">
-        <v>2.215410418557553</v>
+        <v>6.296908235180922</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6017420861463307</v>
+        <v>1.345915976551453</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03230682489138559</v>
+        <v>0.06471337057603677</v>
       </c>
       <c r="D24">
-        <v>0.1331509973194116</v>
+        <v>0.1053840308793639</v>
       </c>
       <c r="E24">
-        <v>0.1278290888172648</v>
+        <v>0.0728693361748185</v>
       </c>
       <c r="F24">
-        <v>1.753020840873106</v>
+        <v>1.13441905503953</v>
       </c>
       <c r="G24">
-        <v>1.130268281721328</v>
+        <v>0.848841516807795</v>
       </c>
       <c r="H24">
-        <v>1.093135101482943</v>
+        <v>0.5267739343050692</v>
       </c>
       <c r="I24">
-        <v>0.96310202127313</v>
+        <v>0.7029903520054432</v>
       </c>
       <c r="J24">
-        <v>0.1549475541489045</v>
+        <v>0.07010171799636211</v>
       </c>
       <c r="K24">
-        <v>1.946741138551204</v>
+        <v>5.365813426672446</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5475953947826326</v>
+        <v>1.147731986738535</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02912792877669546</v>
+        <v>0.05525237005220163</v>
       </c>
       <c r="D25">
-        <v>0.129346438421031</v>
+        <v>0.08998486274153805</v>
       </c>
       <c r="E25">
-        <v>0.1273892433794046</v>
+        <v>0.0660016220951043</v>
       </c>
       <c r="F25">
-        <v>1.759693636847956</v>
+        <v>1.027221101217421</v>
       </c>
       <c r="G25">
-        <v>1.133886471045656</v>
+        <v>0.7563180765744875</v>
       </c>
       <c r="H25">
-        <v>1.106400311938273</v>
+        <v>0.5022557542239383</v>
       </c>
       <c r="I25">
-        <v>0.9643327389613816</v>
+        <v>0.6269333891709294</v>
       </c>
       <c r="J25">
-        <v>0.1566901927202977</v>
+        <v>0.06747026578789317</v>
       </c>
       <c r="K25">
-        <v>1.657259338187089</v>
+        <v>4.376904408350583</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4896305062402533</v>
+        <v>0.9379617033080336</v>
       </c>
       <c r="N25">
         <v>0</v>
